--- a/input/calorimetry/ds.3.ampoule/data.xlsx
+++ b/input/calorimetry/ds.3.ampoule/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="input_stoich_coefficients" sheetId="1" state="visible" r:id="rId2"/>
@@ -220,7 +220,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="4:4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -317,7 +317,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="4:4 A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -369,7 +369,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="4:4 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -656,8 +656,8 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -716,7 +716,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="4:4 H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -887,8 +887,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="1" sqref="4:4 C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/input/calorimetry/ds.3.ampoule/data.xlsx
+++ b/input/calorimetry/ds.3.ampoule/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="input_stoich_coefficients" sheetId="1" state="visible" r:id="rId2"/>
@@ -220,7 +220,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="4:4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -317,7 +317,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="4:4 A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -369,7 +369,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="4:4 E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -656,8 +656,8 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -713,10 +713,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="4:4 H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -724,151 +724,166 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B1" s="0" t="s">
         <v>25</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-10.0952</v>
       </c>
       <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>-10.4137</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>-10.8359</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>-10.7336</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>-9.776</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>-9.9857</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>-9.7711</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>-9.8545</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.1</v>
-      </c>
       <c r="C4" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-10.7336</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>0.1</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>13</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>-9.776</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-9.9857</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>-9.7711</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>-9.8545</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -888,7 +903,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="1" sqref="4:4 C8"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
